--- a/cleanup-gh-pages/StructureDefinition-mii-pr-fall-kontakt-gesundheitseinrichtung.xlsx
+++ b/cleanup-gh-pages/StructureDefinition-mii-pr-fall-kontakt-gesundheitseinrichtung.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10</t>
+    <t>2025-12-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -863,11 +863,9 @@
     <t>Aufnahmenummer</t>
   </si>
   <si>
-    <t>OPTIONAL, Aufnahmenummer/Fallnummer, die Patient:innen bei der Planung einer Aufnahme oder bei der Aufnahme selbst bekommt. 
-Generell SOLLTE die Aufnahmenummer in allen Encounter-Ressourcen unabhängig von der Kontaktebene und dem Kontakttyp angegeben werden. 
-Als Gründe würden dagegen sprechen, wenn die Aufnahmenummer nur in einem Encounter der Encounter-Hierarchie angegeben werden kann. 
-In diesem Fall SOLL auf die korrekte Encounter-Verlinkung über .partOf geachtet werden, 
-sowie dass jeder Encounter einen eigenständigen Identifier mit unterschiedlichen Systemen enthält.</t>
+    <t>OPTIONAL, Ein eindeutiger Identifier, der einem Patienten bei der Aufnahmeplanung oder bei der Aufnahme selbst zugewiesen wird.
+Jeder Encounter SOLLTE seine eigene eindeutige Aufnahmenummer haben. Die Aufnahmenummer ist nicht die Fallnummer, 
+welche sich auf den kompletten Abrechnungsfall bezieht. Hier wird ein Identifier angegeben, der den Kontakt eindeutig identifiziert.</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -2014,7 +2012,11 @@
     <t>Diagnosen</t>
   </si>
   <si>
-    <t>OPTIONAL, Angaben zu Diagnosen</t>
+    <t>OPTIONAL, Verweis auf Diagnosen/Prozeduren, die eine besondere Rolle im Kontext eines Encounters haben.
+Der Fallbezug von Diagnosen und Prozeduren wird über das jeweilige encounter-Element der Condition bzw. Procedure-Ressource hinreichend etabliert. 
+Die zusätzliche Rückverlinkung von Encounter.diagnosis auf Condition/Procedure wird nur dann verwendet, 
+wenn einer Diagnose bzw. Prozedur im Kontext eines Aufenthaltes eine besondere Rolle zugewiesen werden soll, 
+z.B. Haupt-/Neben-/Aufnahme- oder Überweisungsdiagnose).</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON]</t>
@@ -2044,7 +2046,7 @@
   </si>
   <si>
     <t>VERPFLICHTEND, wenn Diagnosedaten angegeben werden, dann MUSS diese referenziert werden. 
-Es SOLLTE nur die Primärdiagnose referenziert werden.</t>
+Bei ICD-10 Primär- und Sekundärcodes SOLLTE nur die Primärdiagnose referenziert werden.</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -2130,10 +2132,10 @@
 </t>
   </si>
   <si>
-    <t>The set of accounts that may be used for billing for this Encounter</t>
-  </si>
-  <si>
-    <t>The set of accounts that may be used for billing for this Encounter.</t>
+    <t>Abrechnungskontext</t>
+  </si>
+  <si>
+    <t>OPTIONAL. Referenz auf den Abrechnungsfall. Eine logische Referenz ist ausreichend zur Abbildung des Abrechnungskontextes.</t>
   </si>
   <si>
     <t>The billing system may choose to allocate billable items associated with the Encounter to different referenced Accounts based on internal business rules.</t>
@@ -18095,7 +18097,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
         <v>670</v>
       </c>
@@ -18114,7 +18116,7 @@
         <v>79</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>80</v>
